--- a/160215-160220-150225-150226-israel.com/Lab-2 (160215-160220-150225 -150226-israel.com).xlsx
+++ b/160215-160220-150225-150226-israel.com/Lab-2 (160215-160220-150225 -150226-israel.com).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Night Fury\Desktop\(160215-160220-150225 -150226-israel.com)\(160215-160220-150225 -150226-israel.com)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic\4-1\CSE 4112 - Computer Networks Lab\CSEKU_NETWORKING_2019_Lab-Works\160215-160220-150225-150226-israel.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -348,12 +348,50 @@
   <si>
     <t>telnet,rpcbind,bgp</t>
   </si>
+  <si>
+    <t>Network: Taletalk</t>
+  </si>
+  <si>
+    <t>UGC</t>
+  </si>
+  <si>
+    <t>Lavel 11</t>
+  </si>
+  <si>
+    <t>Lavel 12</t>
+  </si>
+  <si>
+    <t>Lavel 13</t>
+  </si>
+  <si>
+    <t>Lavel 14</t>
+  </si>
+  <si>
+    <t>Lavel 10</t>
+  </si>
+  <si>
+    <t>Grameenphone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Website: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.israel.com</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,8 +453,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +478,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,7 +499,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -462,7 +512,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -471,12 +521,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -570,13 +625,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1684020</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -619,7 +674,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -635,7 +690,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -665,14 +720,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1303020</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>1579245</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -688,8 +743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1729740" y="2556510"/>
-          <a:ext cx="1249680" cy="541020"/>
+          <a:off x="2244090" y="3251835"/>
+          <a:ext cx="1249680" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -715,7 +770,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -762,13 +817,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1684020</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -811,7 +866,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -853,15 +908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1318260</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1537335</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -876,8 +931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1729740" y="1703070"/>
-          <a:ext cx="1264920" cy="373380"/>
+          <a:off x="2186940" y="2303145"/>
+          <a:ext cx="1264920" cy="478155"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -903,7 +958,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -929,15 +984,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>1550670</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -952,8 +1007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036570" y="2465070"/>
-          <a:ext cx="1400175" cy="762000"/>
+          <a:off x="4046220" y="3179445"/>
+          <a:ext cx="1409700" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -979,7 +1034,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -998,7 +1053,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1028,14 +1083,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455420</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>1531620</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1051,8 +1106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036570" y="1611630"/>
-          <a:ext cx="1400175" cy="541020"/>
+          <a:off x="4027170" y="2125980"/>
+          <a:ext cx="1409700" cy="779145"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1078,7 +1133,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1124,15 +1179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1363980</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>1516380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1147,8 +1202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476750" y="2564130"/>
-          <a:ext cx="1325880" cy="571500"/>
+          <a:off x="5734050" y="3249930"/>
+          <a:ext cx="1325880" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1174,7 +1229,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1193,7 +1248,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1223,15 +1278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1246,8 +1301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4484370" y="1588770"/>
-          <a:ext cx="1316355" cy="571500"/>
+          <a:off x="5722620" y="2093595"/>
+          <a:ext cx="1325880" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1273,7 +1328,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1292,7 +1347,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1323,13 +1378,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1432560</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1372,7 +1427,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -1391,7 +1446,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1422,13 +1477,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1471,7 +1526,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1517,14 +1572,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>1558290</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1540,8 +1595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="2556510"/>
-          <a:ext cx="1377315" cy="571500"/>
+          <a:off x="9353550" y="3251835"/>
+          <a:ext cx="1386840" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1567,7 +1622,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -1586,7 +1641,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1616,14 +1671,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>1535430</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1639,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="1581150"/>
-          <a:ext cx="1383030" cy="571500"/>
+          <a:off x="9315450" y="2095500"/>
+          <a:ext cx="1402080" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1666,7 +1721,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1685,7 +1740,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>(</a:t>
@@ -1715,15 +1770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1055370</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1283970</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1738,7 +1793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6372225" y="2133600"/>
+          <a:off x="11096625" y="3267075"/>
           <a:ext cx="1017270" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1765,7 +1820,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -1790,15 +1845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1234440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1358265</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1813,8 +1868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8694420" y="1680210"/>
-          <a:ext cx="1188720" cy="758190"/>
+          <a:off x="10999470" y="2070735"/>
+          <a:ext cx="1188720" cy="967740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1840,7 +1895,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1852,81 +1907,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>100.100.0.1 (ssh)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rectangle: Rounded Corners 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEE003D-AA30-4290-BE32-6CD9C8FE72A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9987915" y="2613660"/>
-          <a:ext cx="1181100" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>103.16.154.3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
@@ -1941,13 +1921,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226820</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1990,7 +1970,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -2002,93 +1982,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>103.16.154.1 (***)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1226820</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectangle: Rounded Corners 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4BC38B-8AAE-4AE6-BF62-EEB953F5B542}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11172825" y="2632710"/>
-          <a:ext cx="1188720" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>103.16.152.4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
@@ -2103,13 +1996,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1283970</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2152,7 +2045,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>103.16.152.46(***) </a:t>
@@ -2165,15 +2058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2188,8 +2081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12784455" y="2647950"/>
-          <a:ext cx="1150620" cy="381000"/>
+          <a:off x="15365730" y="3333750"/>
+          <a:ext cx="1150620" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2215,7 +2108,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -2240,15 +2133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1179195</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1255395</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2263,8 +2156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12782550" y="1695450"/>
-          <a:ext cx="1150620" cy="381000"/>
+          <a:off x="15411450" y="2324100"/>
+          <a:ext cx="1150620" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2290,7 +2183,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>103.16.152.82 </a:t>
@@ -2303,22 +2196,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1584960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1403985</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle: Rounded Corners 69">
+        <xdr:cNvPr id="71" name="Rectangle: Rounded Corners 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461B7127-C3F1-4632-8D2F-BF5B2841210E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,8 +2219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15563850" y="2541270"/>
-          <a:ext cx="1423035" cy="754380"/>
+          <a:off x="18059400" y="1853565"/>
+          <a:ext cx="1318260" cy="1297305"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2353,108 +2246,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>104.27.191.51 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>http,https,http-proxy,https-alt)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1575435</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rectangle: Rounded Corners 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15554325" y="1491615"/>
-          <a:ext cx="1423035" cy="754380"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -2502,15 +2294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1228726</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2525,8 +2317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="1343025"/>
-          <a:ext cx="912495" cy="628650"/>
+          <a:off x="16754476" y="2190750"/>
+          <a:ext cx="1085850" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2552,7 +2344,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>104.27.191.49</a:t>
@@ -2565,15 +2357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2588,8 +2380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10698480" y="2257425"/>
-          <a:ext cx="893445" cy="495300"/>
+          <a:off x="16680180" y="3228975"/>
+          <a:ext cx="1274445" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2615,7 +2407,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t> 104.27.191.51</a:t>
@@ -2629,13 +2421,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>367665</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1632585</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2692,13 +2484,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1541145</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2741,7 +2533,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -2774,13 +2566,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2823,7 +2615,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -2889,13 +2681,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1527809</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2938,7 +2730,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>43.228.208.21</a:t>
@@ -2959,13 +2751,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1649730</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3008,7 +2800,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3057,13 +2849,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1510665</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3106,7 +2898,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>43.228.208.5</a:t>
@@ -3136,13 +2928,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1535430</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3185,7 +2977,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3208,13 +3000,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1388745</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3257,7 +3049,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>43.228.208.66 (telnet,rpcbind,bgp,ldap,imtc-mcs,h323gatestat,h323q931,cisco-sccp,sip,X11:59)</a:t>
@@ -3271,13 +3063,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1386840</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3320,7 +3112,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3366,13 +3158,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>32384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1224915</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3415,7 +3207,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3448,13 +3240,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1322070</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3497,7 +3289,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -3555,13 +3347,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3604,7 +3396,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3651,13 +3443,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1769745</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3700,7 +3492,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3759,13 +3551,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1838325</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3808,7 +3600,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3851,13 +3643,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1828801</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3900,7 +3692,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3927,13 +3719,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1426845</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3976,7 +3768,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>103.80.71.65 (bgp,pptp,netop-school,cisco-sccp)</a:t>
@@ -3990,13 +3782,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4039,7 +3831,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4072,13 +3864,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1552575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4121,7 +3913,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4154,13 +3946,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1257301</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>5714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4203,7 +3995,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4236,13 +4028,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4285,7 +4077,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4297,334 +4089,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>129.250.2.122</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(***)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle: Rounded Corners 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFEB33D-8882-4C53-B07A-0FF8318B1E26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14001750" y="5772150"/>
-          <a:ext cx="1181100" cy="805815"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>129.250.3.147</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(***)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Rectangle: Rounded Corners 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500B5B79-1808-4A21-A47F-99A3F0AB7380}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15373350" y="5772150"/>
-          <a:ext cx="1181100" cy="805815"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>129.250.4.35</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(***)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Rectangle: Rounded Corners 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BA7274-EE11-4FD9-9570-3D397E962F89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16754475" y="5772150"/>
-          <a:ext cx="1095375" cy="796290"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>129.250.3.84</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(***)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Rectangle: Rounded Corners 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FAED0F-2F0D-43D8-BAC7-51D59844D06A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18202275" y="5800725"/>
-          <a:ext cx="1066800" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>129.250.2.128</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
@@ -4646,13 +4110,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4695,7 +4159,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>116.51.17.86 </a:t>
@@ -4716,13 +4180,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4744,6 +4208,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4765,7 +4232,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>104.27.191.49 </a:t>
@@ -4777,184 +4244,6 @@
             <a:rPr lang="en-US"/>
             <a:t>(http,https,http-proxy,https-alt)</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="Rectangle: Rounded Corners 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75EC5A6-F65B-4D84-9C49-32F4AD88CD69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19554825" y="5781675"/>
-          <a:ext cx="1057275" cy="796290"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>116.51.17.88</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(***)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Rectangle: Rounded Corners 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6C04D6-CB81-4251-8E82-FF81AD15E034}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20783550" y="5791200"/>
-          <a:ext cx="1181100" cy="796290"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>104.27.191.51</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(http,https,http-proxy,https-alt)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4963,15 +4252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1769745</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>1779270</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4986,7 +4275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="9675495"/>
+          <a:off x="104775" y="10847070"/>
           <a:ext cx="1674495" cy="641985"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5013,6 +4302,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -5060,13 +4350,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5109,6 +4399,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -5133,13 +4424,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1560195</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5182,6 +4473,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -5206,13 +4498,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5255,7 +4547,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5301,13 +4593,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5350,6 +4642,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -5397,13 +4690,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1733551</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5446,84 +4739,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>157.119.185.158 (***)</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1611630</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle: Rounded Corners 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F697DA19-9123-4CB1-8A9A-566F5DA8FFFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7600950" y="9917430"/>
-          <a:ext cx="1392555" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>157.119.185.160 (***)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5533,13 +4753,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1520190</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5582,7 +4802,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5628,13 +4848,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1388745</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5677,7 +4897,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5723,13 +4943,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1310640</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5772,7 +4992,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5818,13 +5038,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1457326</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5867,7 +5087,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5913,13 +5133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5962,7 +5182,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>192.168.198.1 (bgp,cisco-sccp,blp3)</a:t>
@@ -5976,13 +5196,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6025,7 +5245,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -6048,13 +5268,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6097,7 +5317,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -6119,15 +5339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6142,8 +5362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="11953875"/>
-          <a:ext cx="1181100" cy="923925"/>
+          <a:off x="14011275" y="10810875"/>
+          <a:ext cx="1181100" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6169,7 +5389,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -6203,7 +5423,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
@@ -6213,15 +5433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1238249</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6236,12 +5456,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15468600" y="8448675"/>
-          <a:ext cx="971550" cy="876300"/>
+          <a:off x="15363825" y="9553575"/>
+          <a:ext cx="1181099" cy="895349"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6263,7 +5486,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -6274,7 +5497,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>104.27.191.49(http,https,http-proxy,https-alt)</a:t>
+            <a:t>104.27.191.49</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(http,https,http-proxy,https-alt)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6285,15 +5523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6308,8 +5546,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12792075" y="11877674"/>
-          <a:ext cx="1181100" cy="847725"/>
+          <a:off x="15335250" y="10915649"/>
+          <a:ext cx="1247775" cy="647699"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6335,7 +5573,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -6346,7 +5584,1625 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>104.27.190.49(http,https,http-proxy,https-alt</a:t>
+            <a:t>104.27.190.49</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(http,https,http-proxy,https-alt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rectangle: Rounded Corners 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2BAFDC-DE05-4087-9411-32470E0CF7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="14226540"/>
+          <a:ext cx="1341120" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>192.168.43.1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(domain</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224789</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1704974</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Rectangle: Rounded Corners 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798A67EE-B941-4333-88C4-F0B8A987619C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2139314" y="14257020"/>
+          <a:ext cx="1480185" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10.170.161.49 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(https-alt,https,http-proxy,http)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1550670</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rectangle: Rounded Corners 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13849446-E364-4B0B-AEEC-A955A195DAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9323070" y="14222730"/>
+          <a:ext cx="1409700" cy="779145"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>103.9.113.241</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(http,https)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rectangle: Rounded Corners 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB0BB2B-179A-4771-883B-577DD313F2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046220" y="14218920"/>
+          <a:ext cx="1325880" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>10.244.21.22</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rectangle: Rounded Corners 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5263963-1043-4198-AB62-E4C0AAFF3D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="14258925"/>
+          <a:ext cx="1638300" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>202.56.7.237</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(ssh,telnet,tcpwrapped)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1449705</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rectangle: Rounded Corners 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEB73D8-FB20-44E5-8EA8-24D97DF239B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="14306551"/>
+          <a:ext cx="1116330" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>103.9.115.193</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1396365</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rectangle: Rounded Corners 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A734E90-6D69-4C00-AE3C-1EEA3EFF0FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11037570" y="14262735"/>
+          <a:ext cx="1188720" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>154.18.2.201</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(radmin)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle: Rounded Corners 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D068B40F-8653-4B25-8DDA-4943B3CC9832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12599670" y="14363700"/>
+          <a:ext cx="1181100" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>154.54.85.17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1283970</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle: Rounded Corners 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB5EE10-B508-48B4-AB6A-F4088B21E9FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="2146934"/>
+          <a:ext cx="1188720" cy="758190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>154.54.59.145</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1245870</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rectangle: Rounded Corners 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8485B74-07ED-420B-82B6-813BD4E89FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15401925" y="14439900"/>
+          <a:ext cx="1150620" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>130.117.49.2 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1442085</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle: Rounded Corners 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="13997940"/>
+          <a:ext cx="1318260" cy="1297305"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>104.27.191.49(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http,https,http-proxy,https-alt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rectangle: Rounded Corners 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76EE1B-D2AF-46A7-B4E4-9D6973C940D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16697326" y="14392276"/>
+          <a:ext cx="1162050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>149.6.177.170</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB12A599-0ECC-490F-8123-86B48770450D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="9686924"/>
+          <a:ext cx="1685925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>43.228.208.70</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1733551</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB46154-ABB6-4E9C-8FCB-3D76BAB8479B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7465696" y="9782175"/>
+          <a:ext cx="1649730" cy="470535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>116.51.26.33</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1581151</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9799BB4-41B6-460F-A8F4-0D2FEDC9DACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391651" y="17183100"/>
+          <a:ext cx="1371600" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>129.250.3.146</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1457324</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20018FDC-96C6-46DA-A9AC-557BB693D0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11077574" y="17240250"/>
+          <a:ext cx="1209675" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>129.250.3.48</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64EB09F-35B4-4445-83D3-43C2D5F7A91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12540615" y="17192625"/>
+          <a:ext cx="1299210" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>129.250.3.27</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1457326</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3133EAFE-E3C3-4982-AE1C-F5FECEB3B44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="9705975"/>
+          <a:ext cx="1066800" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>192.168.43.1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(domain)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BFF6A6-207A-497F-8A0C-4769FDBD7CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="9639300"/>
+          <a:ext cx="1409700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10.99.249.18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6561B16-C302-4B55-B664-DF73A804B6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="9648825"/>
+          <a:ext cx="1400175" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>103.15.42.1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB606156-E779-4C33-964D-2D9E7F5D48B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="17278349"/>
+          <a:ext cx="1238250" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>131.103.117.82</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2684B45-05A3-4989-9C83-E72D5712D5A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15354300" y="16973550"/>
+          <a:ext cx="1181100" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>104.27.191.49</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(http,https,http-proxy,https-alt)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6657,7 +7513,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7008,7 +7864,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7373,7 +8229,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7676,294 +8532,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" style="11" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="19.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="13.28515625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>11</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7976,6 +8717,7 @@
     <hyperlink ref="A1" r:id="rId1" display="www.israel.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7984,266 +8726,156 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8259,10 +8891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8284,142 +8916,323 @@
     <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="J33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="www.nytimes.com"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B39" r:id="rId3"/>
+    <hyperlink ref="B27" r:id="rId1" display="www.nytimes.com"/>
+    <hyperlink ref="B28" r:id="rId2"/>
+    <hyperlink ref="B51" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId4"/>
+    <hyperlink ref="B75" r:id="rId5"/>
+    <hyperlink ref="B91" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/160215-160220-150225-150226-israel.com/Lab-2 (160215-160220-150225 -150226-israel.com).xlsx
+++ b/160215-160220-150225-150226-israel.com/Lab-2 (160215-160220-150225 -150226-israel.com).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -385,6 +385,9 @@
       </rPr>
       <t>www.israel.com</t>
     </r>
+  </si>
+  <si>
+    <t>Taletalk</t>
   </si>
 </sst>
 </file>
@@ -515,12 +518,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +529,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -639,7 +642,7 @@
         <xdr:cNvPr id="50" name="Rectangle: Rounded Corners 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2308235F-CAC2-47CA-8FB1-8731470DC9B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2308235F-CAC2-47CA-8FB1-8731470DC9B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +738,7 @@
         <xdr:cNvPr id="51" name="Rectangle: Rounded Corners 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB63BA01-30F8-4C8C-BBF9-315A36324052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB63BA01-30F8-4C8C-BBF9-315A36324052}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +834,7 @@
         <xdr:cNvPr id="52" name="Rectangle: Rounded Corners 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2BAFDC-DE05-4087-9411-32470E0CF7AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C2BAFDC-DE05-4087-9411-32470E0CF7AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,7 +926,7 @@
         <xdr:cNvPr id="53" name="Rectangle: Rounded Corners 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798A67EE-B941-4333-88C4-F0B8A987619C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{798A67EE-B941-4333-88C4-F0B8A987619C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -999,7 +1002,7 @@
         <xdr:cNvPr id="54" name="Rectangle: Rounded Corners 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624033BB-0EFB-4D05-A13A-8CF73C0C3ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{624033BB-0EFB-4D05-A13A-8CF73C0C3ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1098,7 +1101,7 @@
         <xdr:cNvPr id="55" name="Rectangle: Rounded Corners 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13849446-E364-4B0B-AEEC-A955A195DAC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13849446-E364-4B0B-AEEC-A955A195DAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1197,7 @@
         <xdr:cNvPr id="56" name="Rectangle: Rounded Corners 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ECFF57-4BDA-4171-B8CE-C9724F4B53B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87ECFF57-4BDA-4171-B8CE-C9724F4B53B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1296,7 @@
         <xdr:cNvPr id="57" name="Rectangle: Rounded Corners 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB0BB2B-179A-4771-883B-577DD313F2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB0BB2B-179A-4771-883B-577DD313F2F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="58" name="Rectangle: Rounded Corners 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DA8108-EF62-4E37-97E1-A3ADC6C28E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39DA8108-EF62-4E37-97E1-A3ADC6C28E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1494,7 @@
         <xdr:cNvPr id="59" name="Rectangle: Rounded Corners 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5263963-1043-4198-AB62-E4C0AAFF3D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5263963-1043-4198-AB62-E4C0AAFF3D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1590,7 @@
         <xdr:cNvPr id="60" name="Rectangle: Rounded Corners 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC3FF37-51C9-4BFD-B086-A24B4DE367F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCC3FF37-51C9-4BFD-B086-A24B4DE367F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1689,7 @@
         <xdr:cNvPr id="61" name="Rectangle: Rounded Corners 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEB73D8-FB20-44E5-8EA8-24D97DF239B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFEB73D8-FB20-44E5-8EA8-24D97DF239B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1788,7 @@
         <xdr:cNvPr id="62" name="Rectangle: Rounded Corners 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191618E1-3DDC-4A91-92E7-9DDD6E62CB87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{191618E1-3DDC-4A91-92E7-9DDD6E62CB87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1863,7 @@
         <xdr:cNvPr id="63" name="Rectangle: Rounded Corners 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A734E90-6D69-4C00-AE3C-1EEA3EFF0FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A734E90-6D69-4C00-AE3C-1EEA3EFF0FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1938,7 @@
         <xdr:cNvPr id="65" name="Rectangle: Rounded Corners 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D068B40F-8653-4B25-8DDA-4943B3CC9832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D068B40F-8653-4B25-8DDA-4943B3CC9832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2013,7 @@
         <xdr:cNvPr id="67" name="Rectangle: Rounded Corners 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB5EE10-B508-48B4-AB6A-F4088B21E9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DB5EE10-B508-48B4-AB6A-F4088B21E9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2076,7 @@
         <xdr:cNvPr id="68" name="Rectangle: Rounded Corners 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AC0A43-4E59-4706-90F1-372D38FA57F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7AC0A43-4E59-4706-90F1-372D38FA57F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2151,7 @@
         <xdr:cNvPr id="69" name="Rectangle: Rounded Corners 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8485B74-07ED-420B-82B6-813BD4E89FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8485B74-07ED-420B-82B6-813BD4E89FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2214,7 @@
         <xdr:cNvPr id="71" name="Rectangle: Rounded Corners 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2312,7 @@
         <xdr:cNvPr id="72" name="Rectangle: Rounded Corners 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76EE1B-D2AF-46A7-B4E4-9D6973C940D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D76EE1B-D2AF-46A7-B4E4-9D6973C940D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2375,7 @@
         <xdr:cNvPr id="73" name="Rectangle: Rounded Corners 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DCA8F7-5BE7-494C-AE3B-9CD5C571BA55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9DCA8F7-5BE7-494C-AE3B-9CD5C571BA55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2438,7 @@
         <xdr:cNvPr id="74" name="Rectangle: Rounded Corners 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3C2CEC-09E4-4381-BF57-573401C5C098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A3C2CEC-09E4-4381-BF57-573401C5C098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2501,7 @@
         <xdr:cNvPr id="75" name="Rectangle: Rounded Corners 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9DEA39-B388-4184-A861-E91B72E1D462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF9DEA39-B388-4184-A861-E91B72E1D462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2583,7 @@
         <xdr:cNvPr id="76" name="Rectangle: Rounded Corners 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCB9EBB-F1EA-4944-BA90-968AE50CD15C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BCB9EBB-F1EA-4944-BA90-968AE50CD15C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2698,7 @@
         <xdr:cNvPr id="77" name="Rectangle: Rounded Corners 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDA94F2-6861-402B-B264-4A479FF74F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACDA94F2-6861-402B-B264-4A479FF74F16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2768,7 @@
         <xdr:cNvPr id="78" name="Rectangle: Rounded Corners 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE9B6D6-8C49-4C3D-A3B3-E2812A28C2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAE9B6D6-8C49-4C3D-A3B3-E2812A28C2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2866,7 @@
         <xdr:cNvPr id="79" name="Rectangle: Rounded Corners 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3E94D6-0F51-4B41-829A-14BB32C0298E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B3E94D6-0F51-4B41-829A-14BB32C0298E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2945,7 @@
         <xdr:cNvPr id="80" name="Rectangle: Rounded Corners 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CE627-209D-454B-BDC7-AD2485F7D3EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{001CE627-209D-454B-BDC7-AD2485F7D3EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3017,7 @@
         <xdr:cNvPr id="81" name="Rectangle: Rounded Corners 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A763EF4-7702-4C6A-9582-18BFEE387A8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A763EF4-7702-4C6A-9582-18BFEE387A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3080,7 @@
         <xdr:cNvPr id="82" name="Rectangle: Rounded Corners 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275445F4-CEDA-47D1-8DD4-521D55B11C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{275445F4-CEDA-47D1-8DD4-521D55B11C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +3175,7 @@
         <xdr:cNvPr id="83" name="Rectangle: Rounded Corners 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F55C5D-9EF5-4AF1-8136-655CB199F46F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3F55C5D-9EF5-4AF1-8136-655CB199F46F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3257,7 @@
         <xdr:cNvPr id="84" name="Rectangle: Rounded Corners 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4627156-12E2-4A31-884F-68EEF89AEFDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4627156-12E2-4A31-884F-68EEF89AEFDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3364,7 @@
         <xdr:cNvPr id="85" name="Rectangle: Rounded Corners 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54834F82-B64A-494C-B594-AA945D2F2728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54834F82-B64A-494C-B594-AA945D2F2728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3460,7 @@
         <xdr:cNvPr id="86" name="Rectangle: Rounded Corners 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593F0C9-73F1-4F95-8D16-8AD5981F9672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0593F0C9-73F1-4F95-8D16-8AD5981F9672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3568,7 @@
         <xdr:cNvPr id="87" name="Rectangle: Rounded Corners 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75975CC-1534-405A-A94E-D71D8CF6794C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B75975CC-1534-405A-A94E-D71D8CF6794C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3660,7 @@
         <xdr:cNvPr id="88" name="Rectangle: Rounded Corners 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40116EA5-974C-4FB0-B37C-C6284CB42228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40116EA5-974C-4FB0-B37C-C6284CB42228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3736,7 @@
         <xdr:cNvPr id="89" name="Rectangle: Rounded Corners 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD61EB-FAED-410F-954D-73CE7AAC47ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1AD61EB-FAED-410F-954D-73CE7AAC47ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3799,7 @@
         <xdr:cNvPr id="90" name="Rectangle: Rounded Corners 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475F30D3-0507-40AC-9025-93E7397A9309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{475F30D3-0507-40AC-9025-93E7397A9309}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,7 +3881,7 @@
         <xdr:cNvPr id="91" name="Rectangle: Rounded Corners 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D69DE3-A023-4563-BA8C-3116D47BDF22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D69DE3-A023-4563-BA8C-3116D47BDF22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +3963,7 @@
         <xdr:cNvPr id="92" name="Rectangle: Rounded Corners 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AB9C33-FC5A-4053-A17C-D9F012350D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92AB9C33-FC5A-4053-A17C-D9F012350D46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4042,7 +4045,7 @@
         <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4539AAC1-941B-4EA7-A5D4-07EF39726453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4539AAC1-941B-4EA7-A5D4-07EF39726453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4124,7 +4127,7 @@
         <xdr:cNvPr id="98" name="Rectangle: Rounded Corners 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8953097C-C430-4623-BAC1-1F212EB88B75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8953097C-C430-4623-BAC1-1F212EB88B75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4197,7 @@
         <xdr:cNvPr id="99" name="Rectangle: Rounded Corners 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE8834B-3425-4BEB-902E-604D9CC0213B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AE8834B-3425-4BEB-902E-604D9CC0213B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,7 +4270,7 @@
         <xdr:cNvPr id="102" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335DB2BB-255A-4212-9F5A-7C79D0C01B7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{335DB2BB-255A-4212-9F5A-7C79D0C01B7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4367,7 @@
         <xdr:cNvPr id="103" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FDF8AB-763A-4117-BFFB-E7FF1B8A9DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3FDF8AB-763A-4117-BFFB-E7FF1B8A9DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4441,7 @@
         <xdr:cNvPr id="104" name="Rectangle: Rounded Corners 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9467FD-1F7C-4701-8BA9-AA3C28AC45C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E9467FD-1F7C-4701-8BA9-AA3C28AC45C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4512,7 +4515,7 @@
         <xdr:cNvPr id="105" name="Rectangle: Rounded Corners 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB12A599-0ECC-490F-8123-86B48770450D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB12A599-0ECC-490F-8123-86B48770450D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4607,7 +4610,7 @@
         <xdr:cNvPr id="106" name="Rectangle: Rounded Corners 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE480F66-0801-4334-98DF-BC582A15EA93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE480F66-0801-4334-98DF-BC582A15EA93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4707,7 @@
         <xdr:cNvPr id="107" name="Rectangle: Rounded Corners 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB46154-ABB6-4E9C-8FCB-3D76BAB8479B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FB46154-ABB6-4E9C-8FCB-3D76BAB8479B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4770,7 @@
         <xdr:cNvPr id="109" name="Rectangle: Rounded Corners 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9799BB4-41B6-460F-A8F4-0D2FEDC9DACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9799BB4-41B6-460F-A8F4-0D2FEDC9DACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4862,7 +4865,7 @@
         <xdr:cNvPr id="110" name="Rectangle: Rounded Corners 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20018FDC-96C6-46DA-A9AC-557BB693D0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20018FDC-96C6-46DA-A9AC-557BB693D0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,7 +4960,7 @@
         <xdr:cNvPr id="111" name="Rectangle: Rounded Corners 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64EB09F-35B4-4445-83D3-43C2D5F7A91E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C64EB09F-35B4-4445-83D3-43C2D5F7A91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,7 +5055,7 @@
         <xdr:cNvPr id="112" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3133EAFE-E3C3-4982-AE1C-F5FECEB3B44F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3133EAFE-E3C3-4982-AE1C-F5FECEB3B44F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5150,7 @@
         <xdr:cNvPr id="113" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BFF6A6-207A-497F-8A0C-4769FDBD7CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44BFF6A6-207A-497F-8A0C-4769FDBD7CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,7 +5213,7 @@
         <xdr:cNvPr id="114" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6561B16-C302-4B55-B664-DF73A804B6A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6561B16-C302-4B55-B664-DF73A804B6A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5285,7 @@
         <xdr:cNvPr id="115" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB606156-E779-4C33-964D-2D9E7F5D48B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB606156-E779-4C33-964D-2D9E7F5D48B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5354,7 +5357,7 @@
         <xdr:cNvPr id="116" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F3EFA7-E618-49FB-AA72-25C0B456FBF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72F3EFA7-E618-49FB-AA72-25C0B456FBF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5448,7 +5451,7 @@
         <xdr:cNvPr id="117" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2684B45-05A3-4989-9C83-E72D5712D5A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2684B45-05A3-4989-9C83-E72D5712D5A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5541,7 @@
         <xdr:cNvPr id="118" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AE4A4F-ECDC-40E9-AB02-E59A64E77DDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51AE4A4F-ECDC-40E9-AB02-E59A64E77DDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5625,7 +5628,7 @@
         <xdr:cNvPr id="121" name="Rectangle: Rounded Corners 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2BAFDC-DE05-4087-9411-32470E0CF7AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C2BAFDC-DE05-4087-9411-32470E0CF7AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5705,7 +5708,7 @@
         <xdr:cNvPr id="122" name="Rectangle: Rounded Corners 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798A67EE-B941-4333-88C4-F0B8A987619C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{798A67EE-B941-4333-88C4-F0B8A987619C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5795,7 @@
         <xdr:cNvPr id="124" name="Rectangle: Rounded Corners 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13849446-E364-4B0B-AEEC-A955A195DAC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13849446-E364-4B0B-AEEC-A955A195DAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5879,7 +5882,7 @@
         <xdr:cNvPr id="126" name="Rectangle: Rounded Corners 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB0BB2B-179A-4771-883B-577DD313F2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BB0BB2B-179A-4771-883B-577DD313F2F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,7 +5945,7 @@
         <xdr:cNvPr id="128" name="Rectangle: Rounded Corners 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5263963-1043-4198-AB62-E4C0AAFF3D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5263963-1043-4198-AB62-E4C0AAFF3D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6029,7 +6032,7 @@
         <xdr:cNvPr id="130" name="Rectangle: Rounded Corners 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEB73D8-FB20-44E5-8EA8-24D97DF239B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFEB73D8-FB20-44E5-8EA8-24D97DF239B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6092,7 +6095,7 @@
         <xdr:cNvPr id="132" name="Rectangle: Rounded Corners 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A734E90-6D69-4C00-AE3C-1EEA3EFF0FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A734E90-6D69-4C00-AE3C-1EEA3EFF0FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6162,7 +6165,7 @@
         <xdr:cNvPr id="134" name="Rectangle: Rounded Corners 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D068B40F-8653-4B25-8DDA-4943B3CC9832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D068B40F-8653-4B25-8DDA-4943B3CC9832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6225,7 +6228,7 @@
         <xdr:cNvPr id="136" name="Rectangle: Rounded Corners 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB5EE10-B508-48B4-AB6A-F4088B21E9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DB5EE10-B508-48B4-AB6A-F4088B21E9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6288,7 +6291,7 @@
         <xdr:cNvPr id="138" name="Rectangle: Rounded Corners 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8485B74-07ED-420B-82B6-813BD4E89FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8485B74-07ED-420B-82B6-813BD4E89FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6354,7 @@
         <xdr:cNvPr id="140" name="Rectangle: Rounded Corners 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C6026BA-1BD3-445C-B9BF-974A8A56136B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6449,7 +6452,7 @@
         <xdr:cNvPr id="141" name="Rectangle: Rounded Corners 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76EE1B-D2AF-46A7-B4E4-9D6973C940D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D76EE1B-D2AF-46A7-B4E4-9D6973C940D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6512,7 +6515,7 @@
         <xdr:cNvPr id="143" name="Rectangle: Rounded Corners 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB12A599-0ECC-490F-8123-86B48770450D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB12A599-0ECC-490F-8123-86B48770450D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6584,7 +6587,7 @@
         <xdr:cNvPr id="144" name="Rectangle: Rounded Corners 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB46154-ABB6-4E9C-8FCB-3D76BAB8479B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FB46154-ABB6-4E9C-8FCB-3D76BAB8479B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,7 +6650,7 @@
         <xdr:cNvPr id="145" name="Rectangle: Rounded Corners 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9799BB4-41B6-460F-A8F4-0D2FEDC9DACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9799BB4-41B6-460F-A8F4-0D2FEDC9DACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6710,7 +6713,7 @@
         <xdr:cNvPr id="146" name="Rectangle: Rounded Corners 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20018FDC-96C6-46DA-A9AC-557BB693D0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20018FDC-96C6-46DA-A9AC-557BB693D0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,7 +6785,7 @@
         <xdr:cNvPr id="147" name="Rectangle: Rounded Corners 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64EB09F-35B4-4445-83D3-43C2D5F7A91E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C64EB09F-35B4-4445-83D3-43C2D5F7A91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6845,7 +6848,7 @@
         <xdr:cNvPr id="148" name="Rectangle: Rounded Corners 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3133EAFE-E3C3-4982-AE1C-F5FECEB3B44F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3133EAFE-E3C3-4982-AE1C-F5FECEB3B44F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6934,7 @@
         <xdr:cNvPr id="149" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BFF6A6-207A-497F-8A0C-4769FDBD7CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44BFF6A6-207A-497F-8A0C-4769FDBD7CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6994,7 +6997,7 @@
         <xdr:cNvPr id="150" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6561B16-C302-4B55-B664-DF73A804B6A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6561B16-C302-4B55-B664-DF73A804B6A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,7 +7069,7 @@
         <xdr:cNvPr id="151" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB606156-E779-4C33-964D-2D9E7F5D48B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB606156-E779-4C33-964D-2D9E7F5D48B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7138,7 +7141,7 @@
         <xdr:cNvPr id="152" name="Rectangle: Rounded Corners 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2684B45-05A3-4989-9C83-E72D5712D5A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2684B45-05A3-4989-9C83-E72D5712D5A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7531,11 +7534,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7555,12 +7558,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7879,11 +7882,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7903,11 +7906,11 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8247,11 +8250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -8271,11 +8274,11 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8538,51 +8541,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="19.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
-    <col min="9" max="9" width="13.28515625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="15.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="19.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8731,47 +8734,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8893,8 +8896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8933,84 +8936,84 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -9029,46 +9032,46 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9089,34 +9092,34 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9137,40 +9140,40 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9187,38 +9190,38 @@
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="8" t="s">
         <v>106</v>
       </c>
     </row>
